--- a/Analytics/SP1/Goalmins_sp1.xlsx
+++ b/Analytics/SP1/Goalmins_sp1.xlsx
@@ -82,63 +82,63 @@
     <t>20</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
     <t>Ath Madrid</t>
   </si>
   <si>
-    <t>Almeria</t>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Celta</t>
   </si>
   <si>
     <t>Ath Bilbao</t>
   </si>
   <si>
-    <t>Real Madrid</t>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>Mallorca</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 38</t>
+    <t>SUM(TGM) / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>3778.0</v>
+        <v>1343.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>3672.0</v>
+        <v>1188.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3379.0</v>
+        <v>1046.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>3200.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>3008.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2973.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>2943.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>2897.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2649.0</v>
+        <v>829.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2397.0</v>
+        <v>776.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>2343.0</v>
+        <v>657.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2341.0</v>
+        <v>651.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2271.0</v>
+        <v>648.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2182.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2018.0</v>
+        <v>625.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>1893.0</v>
+        <v>616.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>1874.0</v>
+        <v>612.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1590.0</v>
+        <v>584.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1517.0</v>
+        <v>465.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.0</v>
+        <v>351.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>3527.0</v>
+        <v>1532.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>3201.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>3053.0</v>
+        <v>1141.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>3007.0</v>
+        <v>1085.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>2928.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>2813.0</v>
+        <v>1004.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>2776.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>2743.0</v>
+        <v>813.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>2548.0</v>
+        <v>801.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>2545.0</v>
+        <v>705.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>2504.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>2458.0</v>
+        <v>644.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>2169.0</v>
+        <v>644.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>2109.0</v>
+        <v>606.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>2096.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>2092.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>2084.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>2059.0</v>
+        <v>496.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>1884.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>1765.0</v>
+        <v>262.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>6706.0</v>
+        <v>2561.0</v>
       </c>
       <c r="D2" t="n">
-        <v>176.47368421052633</v>
+        <v>213.41666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -717,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>6415.0</v>
+        <v>2001.0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.81578947368422</v>
+        <v>166.75</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>6386.0</v>
+        <v>1907.0</v>
       </c>
       <c r="D4" t="n">
-        <v>168.05263157894737</v>
+        <v>158.91666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>5850.0</v>
+        <v>1899.0</v>
       </c>
       <c r="D5" t="n">
-        <v>153.94736842105263</v>
+        <v>158.25</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>5821.0</v>
+        <v>1845.0</v>
       </c>
       <c r="D6" t="n">
-        <v>153.18421052631578</v>
+        <v>153.75</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>5447.0</v>
+        <v>1792.0</v>
       </c>
       <c r="D7" t="n">
-        <v>143.3421052631579</v>
+        <v>149.33333333333334</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>5401.0</v>
+        <v>1733.0</v>
       </c>
       <c r="D8" t="n">
-        <v>142.1315789473684</v>
+        <v>144.41666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>5296.0</v>
+        <v>1678.0</v>
       </c>
       <c r="D9" t="n">
-        <v>139.3684210526316</v>
+        <v>139.83333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -815,10 +815,10 @@
         <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>5235.0</v>
+        <v>1647.0</v>
       </c>
       <c r="D10" t="n">
-        <v>137.76315789473685</v>
+        <v>137.25</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4981.0</v>
+        <v>1623.0</v>
       </c>
       <c r="D11" t="n">
-        <v>131.07894736842104</v>
+        <v>135.25</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>4738.0</v>
+        <v>1577.0</v>
       </c>
       <c r="D12" t="n">
-        <v>124.6842105263158</v>
+        <v>131.41666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>4512.0</v>
+        <v>1534.0</v>
       </c>
       <c r="D13" t="n">
-        <v>118.73684210526316</v>
+        <v>127.83333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>4506.0</v>
+        <v>1510.0</v>
       </c>
       <c r="D14" t="n">
-        <v>118.57894736842105</v>
+        <v>125.83333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>4438.0</v>
+        <v>1380.0</v>
       </c>
       <c r="D15" t="n">
-        <v>116.78947368421052</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>4400.0</v>
+        <v>1281.0</v>
       </c>
       <c r="D16" t="n">
-        <v>115.78947368421052</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="17">
@@ -913,10 +913,10 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>4366.0</v>
+        <v>1190.0</v>
       </c>
       <c r="D17" t="n">
-        <v>114.89473684210526</v>
+        <v>99.16666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>4155.0</v>
+        <v>1162.0</v>
       </c>
       <c r="D18" t="n">
-        <v>109.34210526315789</v>
+        <v>96.83333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>4110.0</v>
+        <v>1110.0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.15789473684211</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>4065.0</v>
+        <v>995.0</v>
       </c>
       <c r="D20" t="n">
-        <v>106.97368421052632</v>
+        <v>82.91666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>3894.0</v>
+        <v>961.0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.47368421052632</v>
+        <v>80.08333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/Goalmins_sp1.xlsx
+++ b/Analytics/SP1/Goalmins_sp1.xlsx
@@ -82,10 +82,13 @@
     <t>20</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Villarreal</t>
+    <t>Ath Madrid</t>
   </si>
   <si>
     <t>Osasuna</t>
@@ -97,49 +100,46 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Ath Madrid</t>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Sociedad</t>
   </si>
   <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
+    <t>Valencia</t>
   </si>
   <si>
     <t>Alaves</t>
   </si>
   <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>Getafe</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1343.0</v>
+        <v>1756.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1188.0</v>
+        <v>1617.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1046.0</v>
+        <v>1488.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1034.0</v>
+        <v>1415.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1029.0</v>
+        <v>1310.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>908.0</v>
+        <v>1210.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>848.0</v>
+        <v>1209.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>840.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>829.0</v>
+        <v>1161.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>776.0</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>657.0</v>
+        <v>1132.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>651.0</v>
+        <v>1106.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>648.0</v>
+        <v>1045.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>643.0</v>
+        <v>1039.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>625.0</v>
+        <v>996.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>616.0</v>
+        <v>926.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>612.0</v>
+        <v>879.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>584.0</v>
+        <v>874.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>465.0</v>
+        <v>845.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>351.0</v>
+        <v>658.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>1532.0</v>
+        <v>2438.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>1283.0</v>
+        <v>1566.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>1141.0</v>
+        <v>1558.0</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>1085.0</v>
+        <v>1555.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>1005.0</v>
+        <v>1542.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>1004.0</v>
+        <v>1366.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>898.0</v>
+        <v>1322.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>813.0</v>
+        <v>1243.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>801.0</v>
+        <v>1110.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>705.0</v>
+        <v>1108.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>656.0</v>
+        <v>1082.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>644.0</v>
+        <v>932.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>606.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>577.0</v>
+        <v>924.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>564.0</v>
+        <v>834.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>505.0</v>
+        <v>773.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>496.0</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>472.0</v>
+        <v>633.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>262.0</v>
+        <v>470.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>2561.0</v>
+        <v>3648.0</v>
       </c>
       <c r="D2" t="n">
-        <v>213.41666666666666</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="3">
@@ -717,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>2001.0</v>
+        <v>2983.0</v>
       </c>
       <c r="D3" t="n">
-        <v>166.75</v>
+        <v>248.58333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -731,10 +731,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1907.0</v>
+        <v>2838.0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.91666666666666</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>1899.0</v>
+        <v>2758.0</v>
       </c>
       <c r="D5" t="n">
-        <v>158.25</v>
+        <v>229.83333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>1845.0</v>
+        <v>2674.0</v>
       </c>
       <c r="D6" t="n">
-        <v>153.75</v>
+        <v>222.83333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>1792.0</v>
+        <v>2600.0</v>
       </c>
       <c r="D7" t="n">
-        <v>149.33333333333334</v>
+        <v>216.66666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.0</v>
+        <v>2440.0</v>
       </c>
       <c r="D8" t="n">
-        <v>144.41666666666666</v>
+        <v>203.33333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1678.0</v>
+        <v>2349.0</v>
       </c>
       <c r="D9" t="n">
-        <v>139.83333333333334</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>1647.0</v>
+        <v>2339.0</v>
       </c>
       <c r="D10" t="n">
-        <v>137.25</v>
+        <v>194.91666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.0</v>
+        <v>2299.0</v>
       </c>
       <c r="D11" t="n">
-        <v>135.25</v>
+        <v>191.58333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>1577.0</v>
+        <v>2261.0</v>
       </c>
       <c r="D12" t="n">
-        <v>131.41666666666666</v>
+        <v>188.41666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>1534.0</v>
+        <v>2258.0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.83333333333333</v>
+        <v>188.16666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>1510.0</v>
+        <v>2167.0</v>
       </c>
       <c r="D14" t="n">
-        <v>125.83333333333333</v>
+        <v>180.58333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1380.0</v>
+        <v>2106.0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.0</v>
+        <v>175.5</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>1281.0</v>
+        <v>2092.0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.75</v>
+        <v>174.33333333333334</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1190.0</v>
+        <v>1971.0</v>
       </c>
       <c r="D17" t="n">
-        <v>99.16666666666667</v>
+        <v>164.25</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>1162.0</v>
+        <v>1849.0</v>
       </c>
       <c r="D18" t="n">
-        <v>96.83333333333333</v>
+        <v>154.08333333333334</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>1110.0</v>
+        <v>1713.0</v>
       </c>
       <c r="D19" t="n">
-        <v>92.5</v>
+        <v>142.75</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>995.0</v>
+        <v>1396.0</v>
       </c>
       <c r="D20" t="n">
-        <v>82.91666666666667</v>
+        <v>116.33333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>961.0</v>
+        <v>1291.0</v>
       </c>
       <c r="D21" t="n">
-        <v>80.08333333333333</v>
+        <v>107.58333333333333</v>
       </c>
     </row>
   </sheetData>
